--- a/SERVER/Common/Data/excel/SpaceDefine.xlsx
+++ b/SERVER/Common/Data/excel/SpaceDefine.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\我的课程\Unity游戏开发\MMORPG手撕框架\资料\excel2json\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hello\source\repos\MMO-SERVER\Tools\excel2json\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE524199-D9AF-43E2-8D04-FD8D47461D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B2ACB4-982C-4D5D-86EC-DD9B543EFC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -473,7 +473,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A8" sqref="A8:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
